--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcusKlapprodt\snapADDY GmbH\Sebastian Metzger - Mapping\2_Vorlagen CRM Mapping\Grabber\2019\DE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\MS Dynamics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9CF2A16D-28D6-432E-A207-24B0434E5CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C3053DC-09E9-4C6D-8D54-29EB9FBF1322}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A612948-E198-46AA-AD15-159EABD65D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$6:$I$23,Specifications!$M$6:$M$23,Specifications!$Q$6:$Q$23,Specifications!$U$6:$U$23,Specifications!$Y$6:$Y$23,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$37,Specifications!$U$27:$U$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$7:$I$25,Specifications!$M$7:$M$25,Specifications!$Q$7:$Q$25,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$28:$Y$38,Specifications!$U$28:$U$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,9 +63,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>BillingStreet</t>
-  </si>
-  <si>
     <t>Field type</t>
   </si>
   <si>
@@ -99,15 +96,6 @@
     <t>Field Value</t>
   </si>
   <si>
-    <t>"snapADDY"</t>
-  </si>
-  <si>
-    <t>exportType</t>
-  </si>
-  <si>
-    <t>exportType__c</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
@@ -192,7 +180,37 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Export-Art</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF9DA600"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vorlagen-Name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFE6C36"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
+    </r>
   </si>
   <si>
     <t>boolean</t>
@@ -247,13 +265,25 @@
   </si>
   <si>
     <t>GenderCode</t>
+  </si>
+  <si>
+    <t>EMailAddress1</t>
+  </si>
+  <si>
+    <t>WebSiteURL</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +329,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -309,6 +346,13 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -414,37 +458,6 @@
       <right/>
       <top style="thin">
         <color rgb="FF0070C0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -474,34 +487,6 @@
       <bottom style="thin">
         <color rgb="FF0070C0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1245,11 +1230,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFB4C6E7"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFB4C6E7"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFB4C6E7"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFB4C6E7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFE6C36"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFE6C36"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFE6C36"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1260,176 +1347,185 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1895,13 +1991,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1986,13 +2082,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2353,10 +2449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2378,9 +2474,9 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>25</v>
+    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="82" t="s">
+        <v>48</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2389,1310 +2485,1339 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="42"/>
-      <c r="K2" s="42"/>
+    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="39"/>
+      <c r="K3" s="39"/>
+    </row>
+    <row r="4" spans="1:25" ht="81.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="G4" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="O4" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="S4" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="91"/>
+      <c r="U4" s="92"/>
+      <c r="W4" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="95"/>
+    </row>
+    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="G3" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="100" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="O3" s="100" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="S3" s="94" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" s="95"/>
-      <c r="U3" s="96"/>
-      <c r="W3" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="99"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="65" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="U5" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="W5" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y5" s="68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="56"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="56"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="74"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="74"/>
-    </row>
-    <row r="7" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="G7" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="57"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="58"/>
-      <c r="S7" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="W7" s="71"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="72"/>
+    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="32"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="53"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="53"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="71"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="71"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="18"/>
+        <v>69</v>
+      </c>
+      <c r="B8" s="19"/>
       <c r="C8" s="83"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="58" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="32"/>
+      <c r="G8" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="53"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="53"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="85"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="85"/>
+    </row>
+    <row r="9" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
+      <c r="G9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="58" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="57"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="58"/>
-      <c r="S8" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U8" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="W8" s="75"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="74"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="57"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="58"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="74"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="74"/>
+      <c r="Q9" s="55"/>
+      <c r="S9" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="W9" s="68"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="57" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="33"/>
+      <c r="G10" s="54" t="s">
+        <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="57" t="s">
-        <v>34</v>
+      <c r="K10" s="54" t="s">
+        <v>28</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="57"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="54"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="58"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="74"/>
-      <c r="W10" s="75"/>
+      <c r="Q10" s="55"/>
+      <c r="S10" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="W10" s="72"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="74"/>
+      <c r="Y10" s="71"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="57" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="33"/>
+      <c r="G11" s="54" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="58" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="58"/>
-      <c r="O11" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="75"/>
+      <c r="K11" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="54"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="55"/>
+      <c r="S11" s="72"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="74"/>
-      <c r="W11" s="75"/>
+      <c r="U11" s="71"/>
+      <c r="W11" s="72"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="74"/>
+      <c r="Y11" s="71"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>14</v>
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="33"/>
+      <c r="G12" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="75"/>
+      <c r="K12" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="54"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="55"/>
+      <c r="S12" s="72"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="74"/>
-      <c r="W12" s="75"/>
+      <c r="U12" s="71"/>
+      <c r="W12" s="72"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="74"/>
+      <c r="Y12" s="71"/>
     </row>
-    <row r="13" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="G13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="48"/>
-      <c r="K13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="58"/>
-      <c r="S13" s="75"/>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="33"/>
+      <c r="G13" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="55"/>
+      <c r="O13" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="72"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="74"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="77"/>
+      <c r="U13" s="71"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="71"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="58" t="s">
-        <v>14</v>
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="33"/>
+      <c r="G14" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S14" s="75"/>
+      <c r="K14" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="72"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="74"/>
-      <c r="W14" s="75"/>
+      <c r="U14" s="71"/>
+      <c r="W14" s="72"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="74"/>
+      <c r="Y14" s="71"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="57"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="58"/>
-      <c r="S15" s="75"/>
+    <row r="15" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="G15" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="56"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="55"/>
+      <c r="S15" s="72"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="74"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="5"/>
+      <c r="U15" s="71"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="46"/>
       <c r="Y15" s="74"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="33"/>
       <c r="G16" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="58" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M16" s="58" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="75"/>
+        <v>32</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="72"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="74"/>
-      <c r="W16" s="75"/>
+      <c r="U16" s="71"/>
+      <c r="W16" s="72"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="74"/>
+      <c r="Y16" s="71"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="57" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="33"/>
+      <c r="G17" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="58" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="I17" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="57" t="s">
-        <v>38</v>
+      <c r="K17" s="54" t="s">
+        <v>33</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M17" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S17" s="75"/>
+        <v>7</v>
+      </c>
+      <c r="M17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="54"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="55"/>
+      <c r="S17" s="72"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="74"/>
-      <c r="W17" s="75"/>
+      <c r="U17" s="71"/>
+      <c r="W17" s="72"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="74"/>
+      <c r="Y17" s="71"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="57" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="33"/>
+      <c r="G18" s="54" t="s">
+        <v>2</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="57" t="s">
-        <v>39</v>
+      <c r="K18" s="54" t="s">
+        <v>2</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="57" t="s">
-        <v>39</v>
+        <v>2</v>
+      </c>
+      <c r="M18" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="54" t="s">
+        <v>2</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S18" s="75"/>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="72"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="74"/>
-      <c r="W18" s="75"/>
+      <c r="U18" s="71"/>
+      <c r="W18" s="72"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="74"/>
+      <c r="Y18" s="71"/>
     </row>
-    <row r="19" spans="1:25" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="G19" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" s="76"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="77"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="77"/>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="33"/>
+      <c r="G19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="72"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="71"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="71"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="34"/>
-      <c r="G20" s="57" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="33"/>
+      <c r="G20" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>14</v>
+        <v>62</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20" s="57" t="s">
-        <v>41</v>
+      <c r="K20" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M20" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="57" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="M20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="75"/>
+        <v>63</v>
+      </c>
+      <c r="Q20" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="72"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="74"/>
-      <c r="W20" s="75"/>
+      <c r="U20" s="71"/>
+      <c r="W20" s="72"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="74"/>
+      <c r="Y20" s="71"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="56"/>
-      <c r="O21" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="S21" s="69"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="70"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="70"/>
+    <row r="21" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="G21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q21" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="73"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="74"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="74"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="56"/>
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="55" t="s">
+        <v>13</v>
+      </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="56"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="56"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="70"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="70"/>
+      <c r="K22" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="72"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="71"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="71"/>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="35"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="33"/>
+      <c r="G23" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="55" t="s">
+        <v>13</v>
+      </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="63"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="63"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="80"/>
-      <c r="W23" s="78"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="80"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="53"/>
+      <c r="O23" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q23" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="66"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="67"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="67"/>
     </row>
-    <row r="24" spans="1:25" ht="7.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="8"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="9"/>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="33"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="53"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="9"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="9"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="65"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="9"/>
+      <c r="K24" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="52"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="53"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="67"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="67"/>
     </row>
-    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="34"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="77"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="77"/>
     </row>
-    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="8"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="9"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="9"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="62"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="9"/>
+    </row>
+    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="M26" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q26" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="S26" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="T26" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="U26" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="W26" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="X26" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y26" s="68" t="s">
-        <v>10</v>
+      <c r="G27" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="T27" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y27" s="65" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="30"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="58"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="58"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="58"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="74"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="74"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="31"/>
-      <c r="G28" s="57"/>
+    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="97" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="29"/>
+      <c r="G28" s="54"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="58"/>
-      <c r="K28" s="57"/>
+      <c r="I28" s="55"/>
+      <c r="K28" s="54"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="58"/>
-      <c r="O28" s="57"/>
+      <c r="M28" s="55"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="58"/>
-      <c r="S28" s="75"/>
+      <c r="Q28" s="55"/>
+      <c r="S28" s="72"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="74"/>
-      <c r="W28" s="75"/>
+      <c r="U28" s="71"/>
+      <c r="W28" s="72"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="74"/>
+      <c r="Y28" s="71"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="31"/>
-      <c r="G29" s="57"/>
+      <c r="A29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="30"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="58"/>
-      <c r="K29" s="57"/>
+      <c r="I29" s="55"/>
+      <c r="K29" s="54"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="58"/>
-      <c r="O29" s="57"/>
+      <c r="M29" s="55"/>
+      <c r="O29" s="54"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="58"/>
-      <c r="S29" s="75"/>
+      <c r="Q29" s="55"/>
+      <c r="S29" s="72"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="74"/>
-      <c r="W29" s="75"/>
+      <c r="U29" s="71"/>
+      <c r="W29" s="72"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="74"/>
+      <c r="Y29" s="71"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="57"/>
+      <c r="A30" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="30"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="58"/>
-      <c r="K30" s="57"/>
+      <c r="I30" s="55"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="58"/>
-      <c r="O30" s="57"/>
+      <c r="M30" s="55"/>
+      <c r="O30" s="54"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="58"/>
-      <c r="S30" s="75"/>
+      <c r="Q30" s="55"/>
+      <c r="S30" s="72"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="74"/>
-      <c r="W30" s="75"/>
+      <c r="U30" s="71"/>
+      <c r="W30" s="72"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="74"/>
+      <c r="Y30" s="71"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="57"/>
+      <c r="A31" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="30"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="55"/>
+      <c r="K31" s="54"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="58"/>
-      <c r="O31" s="57"/>
+      <c r="M31" s="55"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="58"/>
-      <c r="S31" s="75"/>
+      <c r="Q31" s="55"/>
+      <c r="S31" s="72"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="74"/>
-      <c r="W31" s="75"/>
+      <c r="U31" s="71"/>
+      <c r="W31" s="72"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="74"/>
+      <c r="Y31" s="71"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="31"/>
-      <c r="G32" s="57"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="30"/>
+      <c r="G32" s="54"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="58"/>
-      <c r="K32" s="57"/>
+      <c r="I32" s="55"/>
+      <c r="K32" s="54"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="58"/>
-      <c r="O32" s="57"/>
+      <c r="M32" s="55"/>
+      <c r="O32" s="54"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="58"/>
-      <c r="S32" s="75"/>
+      <c r="Q32" s="55"/>
+      <c r="S32" s="72"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="74"/>
-      <c r="W32" s="75"/>
+      <c r="U32" s="71"/>
+      <c r="W32" s="72"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="74"/>
+      <c r="Y32" s="71"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="31"/>
-      <c r="G33" s="57"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="30"/>
+      <c r="G33" s="54"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="58"/>
-      <c r="K33" s="57"/>
+      <c r="I33" s="55"/>
+      <c r="K33" s="54"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="58"/>
-      <c r="O33" s="57"/>
+      <c r="M33" s="55"/>
+      <c r="O33" s="54"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="58"/>
-      <c r="S33" s="75"/>
+      <c r="Q33" s="55"/>
+      <c r="S33" s="72"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="74"/>
-      <c r="W33" s="75"/>
+      <c r="U33" s="71"/>
+      <c r="W33" s="72"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="74"/>
+      <c r="Y33" s="71"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="31"/>
-      <c r="G34" s="57"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="30"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="58"/>
-      <c r="K34" s="57"/>
+      <c r="I34" s="55"/>
+      <c r="K34" s="54"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="58"/>
-      <c r="O34" s="57"/>
+      <c r="M34" s="55"/>
+      <c r="O34" s="54"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="58"/>
-      <c r="S34" s="75"/>
+      <c r="Q34" s="55"/>
+      <c r="S34" s="72"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="74"/>
-      <c r="W34" s="75"/>
+      <c r="U34" s="71"/>
+      <c r="W34" s="72"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="74"/>
+      <c r="Y34" s="71"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="31"/>
-      <c r="G35" s="57"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="30"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="58"/>
-      <c r="K35" s="57"/>
+      <c r="I35" s="55"/>
+      <c r="K35" s="54"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="58"/>
-      <c r="O35" s="57"/>
+      <c r="M35" s="55"/>
+      <c r="O35" s="54"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="58"/>
-      <c r="S35" s="75"/>
+      <c r="Q35" s="55"/>
+      <c r="S35" s="72"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="74"/>
-      <c r="W35" s="75"/>
+      <c r="U35" s="71"/>
+      <c r="W35" s="72"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="74"/>
+      <c r="Y35" s="71"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="31"/>
-      <c r="G36" s="57"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="30"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="58"/>
-      <c r="K36" s="57"/>
+      <c r="I36" s="55"/>
+      <c r="K36" s="54"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="58"/>
-      <c r="O36" s="57"/>
+      <c r="M36" s="55"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="58"/>
-      <c r="S36" s="75"/>
+      <c r="Q36" s="55"/>
+      <c r="S36" s="72"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="74"/>
-      <c r="W36" s="75"/>
+      <c r="U36" s="71"/>
+      <c r="W36" s="72"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="74"/>
+      <c r="Y36" s="71"/>
     </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="32"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="80"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="80"/>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="30"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="55"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="55"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="55"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="71"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="71"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="31"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="60"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="60"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="76"/>
+      <c r="U38" s="77"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="77"/>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S3:Y37" name="customEntities"/>
-    <protectedRange sqref="A27:D31" name="Questionnaire_3"/>
-    <protectedRange sqref="B7:B11" name="Contact Fields_2"/>
-    <protectedRange sqref="A7:A22" name="Contact Fields_1"/>
-    <protectedRange sqref="A32:Y37 E27:Y31" name="Questionnaire"/>
-    <protectedRange sqref="A23:Y23 B22:Y22 B12:H21 C8:H11 A6:Y6 C7:Y7 I8:Y21" name="Contact Fields"/>
+    <protectedRange sqref="S27:Y38 S4:Y26" name="customEntities"/>
+    <protectedRange sqref="A28:D32" name="Questionnaire_3"/>
+    <protectedRange sqref="B9:B13" name="Contact Fields_2"/>
+    <protectedRange sqref="A9:A24" name="Contact Fields_1"/>
+    <protectedRange sqref="A33:Y38 E28:Y32" name="Questionnaire"/>
+    <protectedRange sqref="A25:Y25 B24:Y24 B14:H23 C10:H13 A7:Y8 C9:Y9 I10:Y23" name="Contact Fields"/>
+    <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="15">
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I8:I21 B22:AG22 B12:K21 C8:K11 A23:AG24 M8:AG9 M11:P21 R17:AG21 C7:J7 N7:AG7 R11:R16 M10:R10 S10:AG16">
+  <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 A25:AG26 M10:AG11 M13:P23 R19:AG23 C9:J9 N9:AG9 R13:R18 M12:R12 S12:AG18">
     <cfRule type="expression" dxfId="31" priority="39">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="40">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28:Y38">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="38">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S28:U38">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28:Q38">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="34">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:M38">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="32">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28:I38">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A24">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="28">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B13">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="26">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:Q23">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L23">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7:Y8">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="10" priority="16">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y37">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:U37">
-    <cfRule type="expression" dxfId="27" priority="35">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q37">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M37">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I37">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A22">
-    <cfRule type="expression" dxfId="19" priority="27">
+  <conditionalFormatting sqref="S7:U8">
+    <cfRule type="expression" dxfId="9" priority="13">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
+    <cfRule type="expression" dxfId="8" priority="14">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B11">
-    <cfRule type="expression" dxfId="17" priority="25">
+  <conditionalFormatting sqref="O7:Q8">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$C7="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q11:Q21">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$C11="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>$D11="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L21">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$C8="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$D8="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W6:Y6">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:U6">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:Q6">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M6">
+  <conditionalFormatting sqref="K7:M8">
     <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C6="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:I6">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C6="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$D6="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D23" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+  <conditionalFormatting sqref="G7:I8">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:M9">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q23 I6:I23 M6:M23 Y6:Y23 Y27:Y37 U27:U37 Q27:Q37 M27:M37 I27:I37 U6:U23" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U11:U25 I33:I38 Q15 Y7:Y25 Y28:Y38 U28:U38 Q28:Q38 M28:M38 M13 I7:I8 I28:I31 U7:U8 Q24:Q25 Q17 Q7:Q12 M23:M25 M7:M8 I24:I25" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
       <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I10:I23 M9:M12 M14:M22 Q13:Q14 Q16 Q18:Q23 U9:U10 I32" xr:uid="{D759715D-61C6-4ADE-94FC-C3878DE166D6}">
+      <formula1>"text, boolean, number, picklist, multipicklist, lookup, date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3711,6 +3836,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3919,12 +4050,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
@@ -3934,6 +4059,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3950,21 +4092,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\MS Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A612948-E198-46AA-AD15-159EABD65D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF7A6F-281C-4411-95BC-59B84289FDDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Valentin Schönrock</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{78F35B4F-995D-4FF5-91E8-98AD6AD32AAE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld ausgefüllt sein muss</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{8C98AF38-3EC9-4278-A673-512E85C7FFAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>"x" eingeben, wenn dieses Feld nicht benötigt wird</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="71">
   <si>
@@ -109,12 +147,6 @@
   </si>
   <si>
     <t>MS Dynamics: Account</t>
-  </si>
-  <si>
-    <t>MS Dyn: Custom Entity</t>
-  </si>
-  <si>
-    <t>MS: Custom Entity (optional)</t>
   </si>
   <si>
     <t>Anrede</t>
@@ -278,12 +310,18 @@
   <si>
     <t>Subject</t>
   </si>
+  <si>
+    <t>MS: Additional Entity (optional)</t>
+  </si>
+  <si>
+    <t>MS Dyn: Additional Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +402,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2448,11 +2493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2521,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2506,10 +2551,10 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="28"/>
       <c r="G4" s="96" t="s">
@@ -2529,12 +2574,12 @@
       <c r="P4" s="96"/>
       <c r="Q4" s="96"/>
       <c r="S4" s="90" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="T4" s="91"/>
       <c r="U4" s="92"/>
       <c r="W4" s="93" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="X4" s="94"/>
       <c r="Y4" s="95"/>
@@ -2551,47 +2596,47 @@
         <v>20</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P6" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T6" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U6" s="65" t="s">
         <v>9</v>
       </c>
       <c r="W6" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X6" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y6" s="65" t="s">
         <v>9</v>
@@ -2622,17 +2667,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="83"/>
       <c r="D8" s="84"/>
       <c r="E8" s="32"/>
       <c r="G8" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>13</v>
@@ -2653,16 +2698,16 @@
     </row>
     <row r="9" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="42"/>
       <c r="E9" s="43"/>
       <c r="G9" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>3</v>
@@ -2672,7 +2717,7 @@
       </c>
       <c r="J9" s="45"/>
       <c r="K9" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>3</v>
@@ -2690,7 +2735,7 @@
         <v>16</v>
       </c>
       <c r="U9" s="69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W9" s="68"/>
       <c r="X9" s="44"/>
@@ -2698,14 +2743,14 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="80"/>
       <c r="D10" s="22"/>
       <c r="E10" s="33"/>
       <c r="G10" s="54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>4</v>
@@ -2715,7 +2760,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>4</v>
@@ -2733,7 +2778,7 @@
         <v>18</v>
       </c>
       <c r="U10" s="71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="W10" s="72"/>
       <c r="X10" s="5"/>
@@ -2741,14 +2786,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="80"/>
       <c r="D11" s="22"/>
       <c r="E11" s="33"/>
       <c r="G11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>5</v>
@@ -2758,7 +2803,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>5</v>
@@ -2778,27 +2823,27 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="80"/>
       <c r="D12" s="22"/>
       <c r="E12" s="33"/>
       <c r="G12" s="54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M12" s="55" t="s">
         <v>13</v>
@@ -2815,17 +2860,17 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="80"/>
       <c r="D13" s="22"/>
       <c r="E13" s="33"/>
       <c r="G13" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -2862,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -2872,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M14" s="55" t="s">
         <v>13</v>
@@ -2881,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="55" t="s">
         <v>13</v>
@@ -2905,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -2915,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>13</v>
@@ -2932,36 +2977,36 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="80"/>
       <c r="D16" s="22"/>
       <c r="E16" s="33"/>
       <c r="G16" s="57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="55" t="s">
         <v>13</v>
@@ -2975,14 +3020,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="80"/>
       <c r="D17" s="22"/>
       <c r="E17" s="33"/>
       <c r="G17" s="54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>7</v>
@@ -2992,7 +3037,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>7</v>
@@ -3055,36 +3100,36 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="80"/>
       <c r="D19" s="22"/>
       <c r="E19" s="33"/>
       <c r="G19" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M19" s="55" t="s">
         <v>13</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="55" t="s">
         <v>13</v>
@@ -3098,36 +3143,36 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="80"/>
       <c r="D20" s="22"/>
       <c r="E20" s="33"/>
       <c r="G20" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M20" s="55" t="s">
         <v>13</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="55" t="s">
         <v>13</v>
@@ -3141,36 +3186,36 @@
     </row>
     <row r="21" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="41"/>
       <c r="C21" s="79"/>
       <c r="D21" s="42"/>
       <c r="E21" s="43"/>
       <c r="G21" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="45"/>
       <c r="K21" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>13</v>
       </c>
       <c r="O21" s="56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>13</v>
@@ -3184,36 +3229,36 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="80"/>
       <c r="D22" s="22"/>
       <c r="E22" s="33"/>
       <c r="G22" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M22" s="55" t="s">
         <v>13</v>
       </c>
       <c r="O22" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q22" s="55" t="s">
         <v>13</v>
@@ -3227,17 +3272,17 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="80"/>
       <c r="D23" s="22"/>
       <c r="E23" s="33"/>
       <c r="G23" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3250,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="55" t="s">
         <v>13</v>
@@ -3264,7 +3309,7 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="80"/>
@@ -3275,10 +3320,10 @@
       <c r="I24" s="53"/>
       <c r="J24" s="1"/>
       <c r="K24" s="52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M24" s="53" t="s">
         <v>13</v>
@@ -3347,47 +3392,47 @@
         <v>20</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>9</v>
       </c>
       <c r="O27" s="49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P27" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q27" s="51" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T27" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U27" s="65" t="s">
         <v>9</v>
       </c>
       <c r="W27" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="X27" s="64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y27" s="65" t="s">
         <v>9</v>
@@ -3395,10 +3440,10 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="99"/>
@@ -3421,10 +3466,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="101"/>
       <c r="D29" s="102"/>
@@ -3447,10 +3492,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" s="101"/>
       <c r="D30" s="102"/>
@@ -3473,10 +3518,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="102"/>
@@ -3809,20 +3854,18 @@
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U11:U25 I33:I38 Q15 Y7:Y25 Y28:Y38 U28:U38 Q28:Q38 M28:M38 M13 I7:I8 I28:I31 U7:U8 Q24:Q25 Q17 Q7:Q12 M23:M25 M7:M8 I24:I25" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I10:I23 M9:M12 M14:M22 Q13:Q14 Q16 Q18:Q23 U9:U10 I32" xr:uid="{D759715D-61C6-4ADE-94FC-C3878DE166D6}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup, date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 M7:M25 Q7:Q25 I28:I38 M28:M38 Q28:Q38 U7:U25 Y7:Y25 U28:U38 Y28:Y38" xr:uid="{105489BF-673F-4744-8A9F-37193AFC6C10}">
+      <formula1>"text,picklist,multi-picklist,lookup,date,number,boolean"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Export Ready\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF7A6F-281C-4411-95BC-59B84289FDDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5A469A-A806-4E25-8190-4BFC633EF02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -212,39 +212,6 @@
     <t>Username</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
-    </r>
-  </si>
-  <si>
     <t>boolean</t>
   </si>
   <si>
@@ -315,13 +282,16 @@
   </si>
   <si>
     <t>MS Dyn: Additional Entity</t>
+  </si>
+  <si>
+    <t>Grabber Mapping</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,13 +337,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -384,13 +347,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1397,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1407,13 +1363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1425,41 +1381,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1496,23 +1452,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
@@ -1524,6 +1479,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1545,33 +1527,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2496,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,8 +2476,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
-        <v>46</v>
+      <c r="A1" s="105" t="s">
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2551,92 +2507,92 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>52</v>
-      </c>
       <c r="E4" s="28"/>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="96" t="s">
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="O4" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="S4" s="90" t="s">
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="S4" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="99"/>
+      <c r="U4" s="100"/>
+      <c r="W4" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-      <c r="W4" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="95"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="103"/>
     </row>
     <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="86" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="47"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="88" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="51" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T6" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U6" s="65" t="s">
         <v>9</v>
       </c>
       <c r="W6" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X6" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="65" t="s">
         <v>9</v>
@@ -2667,17 +2623,17 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="19"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="32"/>
       <c r="G8" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>13</v>
@@ -2691,17 +2647,17 @@
       <c r="Q8" s="53"/>
       <c r="S8" s="70"/>
       <c r="T8" s="10"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="84"/>
       <c r="W8" s="70"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="85"/>
+      <c r="Y8" s="84"/>
     </row>
     <row r="9" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="42"/>
@@ -2735,7 +2691,7 @@
         <v>16</v>
       </c>
       <c r="U9" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W9" s="68"/>
       <c r="X9" s="44"/>
@@ -2778,7 +2734,7 @@
         <v>18</v>
       </c>
       <c r="U10" s="71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="W10" s="72"/>
       <c r="X10" s="5"/>
@@ -2833,7 +2789,7 @@
         <v>28</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>13</v>
@@ -2843,7 +2799,7 @@
         <v>28</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="55" t="s">
         <v>13</v>
@@ -2870,7 +2826,7 @@
         <v>29</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
@@ -2907,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
@@ -2917,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="55" t="s">
         <v>13</v>
@@ -2926,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="55" t="s">
         <v>13</v>
@@ -2950,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
@@ -2960,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>13</v>
@@ -2987,7 +2943,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
@@ -2997,7 +2953,7 @@
         <v>30</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>13</v>
@@ -3006,7 +2962,7 @@
         <v>30</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="55" t="s">
         <v>13</v>
@@ -3110,7 +3066,7 @@
         <v>32</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>13</v>
@@ -3120,7 +3076,7 @@
         <v>32</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19" s="55" t="s">
         <v>13</v>
@@ -3129,7 +3085,7 @@
         <v>32</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="55" t="s">
         <v>13</v>
@@ -3153,7 +3109,7 @@
         <v>33</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
@@ -3163,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M20" s="55" t="s">
         <v>13</v>
@@ -3172,7 +3128,7 @@
         <v>33</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="55" t="s">
         <v>13</v>
@@ -3196,7 +3152,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
@@ -3206,7 +3162,7 @@
         <v>34</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>13</v>
@@ -3215,7 +3171,7 @@
         <v>34</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>13</v>
@@ -3239,7 +3195,7 @@
         <v>35</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
@@ -3249,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M22" s="55" t="s">
         <v>13</v>
@@ -3258,7 +3214,7 @@
         <v>35</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q22" s="55" t="s">
         <v>13</v>
@@ -3282,7 +3238,7 @@
         <v>36</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I23" s="55" t="s">
         <v>13</v>
@@ -3295,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q23" s="55" t="s">
         <v>13</v>
@@ -3323,7 +3279,7 @@
         <v>37</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="53" t="s">
         <v>13</v>
@@ -3380,7 +3336,7 @@
       <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="85" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3392,47 +3348,47 @@
         <v>20</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I27" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M27" s="51" t="s">
         <v>9</v>
       </c>
       <c r="O27" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P27" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="51" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T27" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U27" s="65" t="s">
         <v>9</v>
       </c>
       <c r="W27" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X27" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y27" s="65" t="s">
         <v>9</v>
@@ -3442,11 +3398,11 @@
       <c r="A28" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="29"/>
       <c r="G28" s="54"/>
       <c r="H28" s="5"/>
@@ -3468,11 +3424,11 @@
       <c r="A29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="30"/>
       <c r="G29" s="54"/>
       <c r="H29" s="5"/>
@@ -3494,11 +3450,11 @@
       <c r="A30" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="100" t="s">
+      <c r="B30" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="30"/>
       <c r="G30" s="54"/>
       <c r="H30" s="5"/>
@@ -3520,11 +3476,11 @@
       <c r="A31" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="30"/>
       <c r="G31" s="54"/>
       <c r="H31" s="5"/>
@@ -3544,9 +3500,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
       <c r="E32" s="30"/>
       <c r="G32" s="54"/>
       <c r="H32" s="5"/>
@@ -3588,9 +3544,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="30"/>
       <c r="G34" s="54"/>
       <c r="H34" s="5"/>
@@ -3610,9 +3566,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="30"/>
       <c r="G35" s="54"/>
       <c r="H35" s="5"/>
@@ -3632,9 +3588,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="30"/>
       <c r="G36" s="54"/>
       <c r="H36" s="5"/>
@@ -3654,9 +3610,9 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="25"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="91"/>
       <c r="E37" s="30"/>
       <c r="G37" s="54"/>
       <c r="H37" s="5"/>
@@ -3676,9 +3632,9 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="31"/>
       <c r="G38" s="58"/>
       <c r="H38" s="59"/>
@@ -3709,21 +3665,21 @@
     <protectedRange sqref="A1" name="Titel"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 A25:AG26 M10:AG11 M13:P23 R19:AG23 C9:J9 N9:AG9 R13:R18 M12:R12 S12:AG18">
@@ -3870,21 +3826,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -4093,10 +4034,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4119,20 +4086,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\Neue Vorlagen\Grabber\MS Dynamics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A612948-E198-46AA-AD15-159EABD65D8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209636BB-F40E-4B9C-A307-3DCCE76F3E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$7:$I$25,Specifications!$M$7:$M$25,Specifications!$Q$7:$Q$25,Specifications!$U$7:$U$25,Specifications!$Y$7:$Y$25,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$28:$Y$38,Specifications!$U$28:$U$38,Specifications!$Q$28:$Q$38,Specifications!$M$28:$M$38,Specifications!$I$28:$I$38,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$37,Specifications!$U$27:$U$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>Website</t>
   </si>
@@ -178,39 +178,6 @@
   </si>
   <si>
     <t>Username</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF9DA600"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vorlagen-Name:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFE6C36"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[Hier bitte Namen der Master-Vorlage einfügen]</t>
-    </r>
   </si>
   <si>
     <t>boolean</t>
@@ -283,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +296,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
@@ -346,13 +306,6 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF9DA600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFE6C36"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1336,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1352,7 +1305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1362,13 +1315,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1380,41 +1333,41 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1451,23 +1404,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
@@ -1479,6 +1431,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1499,33 +1478,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1991,13 +1943,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>771525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2082,13 +2034,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2449,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,9 +2426,9 @@
     <col min="23" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
-        <v>48</v>
+    <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2485,127 +2437,147 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="39"/>
-      <c r="K3" s="39"/>
+    <row r="3" spans="1:25" ht="81.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="G3" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="O3" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="S3" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" s="99"/>
+      <c r="U3" s="100"/>
+      <c r="W3" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="103"/>
     </row>
-    <row r="4" spans="1:25" ht="81.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="G4" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="96" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="O4" s="96" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="S4" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="92"/>
-      <c r="W4" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="95"/>
+    <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="65" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>9</v>
-      </c>
+    <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="32"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="T6" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="X6" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="65" t="s">
-        <v>9</v>
-      </c>
+      <c r="K6" s="52"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="53"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="53"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="71"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="71"/>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="21"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="32"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>13</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="52"/>
       <c r="L7" s="6"/>
@@ -2613,112 +2585,124 @@
       <c r="O7" s="52"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="53"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="71"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="71"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="84"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="84"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="32"/>
-      <c r="G8" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="53" t="s">
+    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="79"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="43"/>
+      <c r="G8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="55"/>
+      <c r="S8" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U8" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="W8" s="68"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="69"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="33"/>
+      <c r="G9" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="53"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="53"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="85"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="85"/>
-    </row>
-    <row r="9" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="G9" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="45"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O9" s="54"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="55"/>
-      <c r="S9" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="69" t="s">
+      <c r="S9" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="W9" s="68"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="69"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="71"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="80"/>
       <c r="D10" s="22"/>
       <c r="E10" s="33"/>
       <c r="G10" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>13</v>
@@ -2726,42 +2710,36 @@
       <c r="O10" s="54"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="55"/>
-      <c r="S10" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="U10" s="71" t="s">
-        <v>50</v>
-      </c>
+      <c r="S10" s="72"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="71"/>
       <c r="W10" s="72"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="71"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="80"/>
       <c r="D11" s="22"/>
       <c r="E11" s="33"/>
       <c r="G11" s="54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="M11" s="55" t="s">
         <v>13</v>
@@ -2778,14 +2756,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="80"/>
       <c r="D12" s="22"/>
       <c r="E12" s="33"/>
       <c r="G12" s="54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>56</v>
@@ -2794,18 +2772,18 @@
         <v>13</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="55" t="s">
+      <c r="K12" s="54"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="55"/>
+      <c r="O12" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="55"/>
       <c r="S12" s="72"/>
       <c r="T12" s="5"/>
       <c r="U12" s="71"/>
@@ -2814,31 +2792,37 @@
       <c r="Y12" s="71"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="17"/>
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18"/>
       <c r="C13" s="80"/>
       <c r="D13" s="22"/>
       <c r="E13" s="33"/>
-      <c r="G13" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="55"/>
-      <c r="O13" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>8</v>
+      <c r="K13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="Q13" s="55" t="s">
         <v>13</v>
@@ -2850,122 +2834,116 @@
       <c r="X13" s="5"/>
       <c r="Y13" s="71"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="33"/>
-      <c r="G14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>58</v>
+    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="41"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="G14" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6" t="s">
+      <c r="J14" s="45"/>
+      <c r="K14" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="46" t="s">
         <v>58</v>
       </c>
       <c r="M14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="55" t="s">
-        <v>13</v>
-      </c>
+      <c r="O14" s="56"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="55"/>
       <c r="S14" s="72"/>
       <c r="T14" s="5"/>
       <c r="U14" s="71"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="71"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="74"/>
     </row>
-    <row r="15" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="G15" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>67</v>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="33"/>
+      <c r="G15" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="I15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="46" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>59</v>
       </c>
       <c r="M15" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="56"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="55"/>
+      <c r="O15" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>13</v>
+      </c>
       <c r="S15" s="72"/>
       <c r="T15" s="5"/>
       <c r="U15" s="71"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="74"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="71"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="19"/>
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17"/>
       <c r="C16" s="80"/>
       <c r="D16" s="22"/>
       <c r="E16" s="33"/>
-      <c r="G16" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>60</v>
+      <c r="G16" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="I16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>60</v>
+      <c r="K16" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="M16" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q16" s="55" t="s">
-        <v>13</v>
-      </c>
+      <c r="O16" s="54"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="55"/>
       <c r="S16" s="72"/>
       <c r="T16" s="5"/>
       <c r="U16" s="71"/>
@@ -2975,34 +2953,40 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="80"/>
       <c r="D17" s="22"/>
       <c r="E17" s="33"/>
       <c r="G17" s="54" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="54" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M17" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="55"/>
+      <c r="O17" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>13</v>
+      </c>
       <c r="S17" s="72"/>
       <c r="T17" s="5"/>
       <c r="U17" s="71"/>
@@ -3012,36 +2996,36 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="80"/>
       <c r="D18" s="22"/>
       <c r="E18" s="33"/>
       <c r="G18" s="54" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="54" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="M18" s="55" t="s">
         <v>13</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="55" t="s">
         <v>13</v>
@@ -3055,14 +3039,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="80"/>
       <c r="D19" s="22"/>
       <c r="E19" s="33"/>
       <c r="G19" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>61</v>
@@ -3072,7 +3056,7 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>61</v>
@@ -3081,10 +3065,10 @@
         <v>13</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="55" t="s">
         <v>13</v>
@@ -3096,165 +3080,153 @@
       <c r="X19" s="5"/>
       <c r="Y19" s="71"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="33"/>
-      <c r="G20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="5" t="s">
+    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="G20" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="46" t="s">
         <v>62</v>
       </c>
       <c r="I20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="J20" s="45"/>
+      <c r="K20" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="46" t="s">
         <v>62</v>
       </c>
       <c r="M20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>63</v>
+      <c r="O20" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="Q20" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="72"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="71"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="71"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="74"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="74"/>
     </row>
-    <row r="21" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="G21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="46" t="s">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="45"/>
-      <c r="K21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="46" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="M21" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="46" t="s">
-        <v>62</v>
+      <c r="O21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="Q21" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="73"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="74"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="74"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="71"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="71"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>37</v>
+      <c r="A22" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="80"/>
       <c r="D22" s="22"/>
       <c r="E22" s="33"/>
-      <c r="G22" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" s="5" t="s">
+      <c r="G22" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I22" s="55" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M22" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="5" t="s">
+      <c r="K22" s="52"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="53"/>
+      <c r="O22" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="6" t="s">
         <v>64</v>
       </c>
       <c r="Q22" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="72"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="71"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="71"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="67"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="67"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="80"/>
       <c r="D23" s="22"/>
       <c r="E23" s="33"/>
-      <c r="G23" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="G23" s="52"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="M23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="53"/>
-      <c r="O23" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="55" t="s">
-        <v>13</v>
-      </c>
+      <c r="O23" s="52"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="53"/>
       <c r="S23" s="66"/>
       <c r="T23" s="6"/>
       <c r="U23" s="67"/>
@@ -3262,147 +3234,142 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="67"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="33"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="53"/>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="34"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="52"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="53"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="67"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="67"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="60"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="77"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="77"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="34"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+    <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="8"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="9"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="77"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="77"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="9"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="9"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="62"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="9"/>
     </row>
-    <row r="26" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="8"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
+    <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="51" t="s">
+        <v>9</v>
+      </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="9"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="9"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="62"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="9"/>
+      <c r="K26" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="W26" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y26" s="65" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="O27" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="S27" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="U27" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="W27" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="X27" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y27" s="65" t="s">
-        <v>9</v>
-      </c>
+    <row r="27" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="96"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="29"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="55"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="55"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="55"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="71"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="71"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="97" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="29"/>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="30"/>
       <c r="G28" s="54"/>
       <c r="H28" s="5"/>
       <c r="I28" s="55"/>
@@ -3421,13 +3388,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
+        <v>44</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="30"/>
       <c r="G29" s="54"/>
       <c r="H29" s="5"/>
@@ -3447,13 +3414,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
+        <v>46</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="30"/>
       <c r="G30" s="54"/>
       <c r="H30" s="5"/>
@@ -3472,14 +3439,10 @@
       <c r="Y30" s="71"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="30"/>
       <c r="G31" s="54"/>
       <c r="H31" s="5"/>
@@ -3499,9 +3462,9 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="30"/>
       <c r="G32" s="54"/>
       <c r="H32" s="5"/>
@@ -3521,9 +3484,9 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="30"/>
       <c r="G33" s="54"/>
       <c r="H33" s="5"/>
@@ -3543,9 +3506,9 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
       <c r="E34" s="30"/>
       <c r="G34" s="54"/>
       <c r="H34" s="5"/>
@@ -3565,9 +3528,9 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
       <c r="E35" s="30"/>
       <c r="G35" s="54"/>
       <c r="H35" s="5"/>
@@ -3587,9 +3550,9 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="30"/>
       <c r="G36" s="54"/>
       <c r="H36" s="5"/>
@@ -3607,217 +3570,191 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="71"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="30"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="55"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="55"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="55"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="71"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="71"/>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="31"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="60"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="60"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="76"/>
+      <c r="U37" s="77"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="77"/>
     </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="31"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="60"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="60"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="77"/>
-      <c r="W38" s="75"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="77"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S27:Y38 S4:Y26" name="customEntities"/>
-    <protectedRange sqref="A28:D32" name="Questionnaire_3"/>
-    <protectedRange sqref="B9:B13" name="Contact Fields_2"/>
-    <protectedRange sqref="A9:A24" name="Contact Fields_1"/>
-    <protectedRange sqref="A33:Y38 E28:Y32" name="Questionnaire"/>
-    <protectedRange sqref="A25:Y25 B24:Y24 B14:H23 C10:H13 A7:Y8 C9:Y9 I10:Y23" name="Contact Fields"/>
-    <protectedRange sqref="A1" name="Titel"/>
+    <protectedRange sqref="S26:Y37 S3:Y25" name="customEntities"/>
+    <protectedRange sqref="A27:D31" name="Questionnaire_3"/>
+    <protectedRange sqref="B8:B12" name="Contact Fields_2"/>
+    <protectedRange sqref="A8:A23" name="Contact Fields_1"/>
+    <protectedRange sqref="A32:Y37 E27:Y31" name="Questionnaire"/>
+    <protectedRange sqref="A24:Y24 B23:Y23 B13:H22 C9:H12 A6:Y7 C8:Y8 I9:Y22" name="Contact Fields"/>
   </protectedRanges>
   <mergeCells count="15">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="O4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="I10:I23 B24:AG24 B14:K23 C10:K13 A25:AG26 M10:AG11 M13:P23 R19:AG23 C9:J9 N9:AG9 R13:R18 M12:R12 S12:AG18">
+  <conditionalFormatting sqref="I9:I22 B23:AG23 B13:K22 C9:K12 A24:AG25 M9:AG10 M12:P22 R18:AG22 C8:J8 N8:AG8 R12:R17 M11:R11 S11:AG17">
     <cfRule type="expression" dxfId="31" priority="39">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="40">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27:Y37">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="38">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:U37">
+    <cfRule type="expression" dxfId="27" priority="35">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="36">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:Q37">
+    <cfRule type="expression" dxfId="25" priority="33">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="34">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:M37">
+    <cfRule type="expression" dxfId="23" priority="31">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="32">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:I37">
+    <cfRule type="expression" dxfId="21" priority="29">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="30">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:A23">
+    <cfRule type="expression" dxfId="19" priority="27">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="28">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B12">
+    <cfRule type="expression" dxfId="17" priority="25">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="26">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12:Q22">
+    <cfRule type="expression" dxfId="15" priority="19">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L22">
+    <cfRule type="expression" dxfId="13" priority="17">
       <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28:Y38">
-    <cfRule type="expression" dxfId="29" priority="37">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="W6:Y7">
+    <cfRule type="expression" dxfId="11" priority="15">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="16">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S28:U38">
-    <cfRule type="expression" dxfId="27" priority="35">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="S6:U7">
+    <cfRule type="expression" dxfId="9" priority="13">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="14">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28:Q38">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="O6:Q7">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:M38">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="K6:M7">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="10">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:I38">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>$C28="x"</formula>
+  <conditionalFormatting sqref="G6:I7">
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>$D28="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="8">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A24">
-    <cfRule type="expression" dxfId="19" priority="27">
-      <formula>$C9="x"</formula>
+  <conditionalFormatting sqref="K8:M8">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="28">
-      <formula>$D9="x"</formula>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B13">
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q23">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$C13="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>$D13="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L23">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>$C10="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>$D10="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7:Y8">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="16">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S7:U8">
-    <cfRule type="expression" dxfId="9" priority="13">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="14">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:Q8">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M8">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:I8">
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:M9">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C9="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D9="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D25" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U11:U25 I33:I38 Q15 Y7:Y25 Y28:Y38 U28:U38 Q28:Q38 M28:M38 M13 I7:I8 I28:I31 U7:U8 Q24:Q25 Q17 Q7:Q12 M23:M25 M7:M8 I24:I25" xr:uid="{602B57E5-9BC3-430C-9CF1-45F2FF9C756D}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9 I10:I23 M9:M12 M14:M22 Q13:Q14 Q16 Q18:Q23 U9:U10 I32" xr:uid="{D759715D-61C6-4ADE-94FC-C3878DE166D6}">
-      <formula1>"text, boolean, number, picklist, multipicklist, lookup, date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 U6:U24 Y6:Y24 Y27:Y37 U27:U37 Q27:Q37 M27:M37 I27:I37" xr:uid="{09C7EF34-073D-4601-825E-FB0BE0622D24}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3827,18 +3764,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4051,14 +3988,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -4071,6 +4000,14 @@
     <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
+++ b/default-mappings-xlsx/grabber/Grabber_Mapping_MSDynamics_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209636BB-F40E-4B9C-A307-3DCCE76F3E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E15CF1-9E55-4E40-94C8-10D94532515D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$37,Specifications!$U$27:$U$37,Specifications!$Q$27:$Q$37,Specifications!$M$27:$M$37,Specifications!$I$27:$I$37,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$24,Specifications!$M$6:$M$24,Specifications!$Q$6:$Q$24,Specifications!$U$6:$U$24,Specifications!$Y$6:$Y$24,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$Y$27:$Y$35,Specifications!$U$27:$U$35,Specifications!$Q$27:$Q$35,Specifications!$M$27:$M$35,Specifications!$I$27:$I$35,Specifications!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="66">
   <si>
     <t>Website</t>
   </si>
@@ -156,18 +156,6 @@
     <t>Geschlecht</t>
   </si>
   <si>
-    <t>Kampagnen-ID</t>
-  </si>
-  <si>
-    <t>Vorlagen-ID</t>
-  </si>
-  <si>
-    <t>VR Titel</t>
-  </si>
-  <si>
-    <t>Vorlagentitel</t>
-  </si>
-  <si>
     <t>Erstellt am (Datum)</t>
   </si>
   <si>
@@ -198,9 +186,6 @@
     <t>Nicht benötigt</t>
   </si>
   <si>
-    <t>das ist eine Notiz</t>
-  </si>
-  <si>
     <t>JobTitle</t>
   </si>
   <si>
@@ -244,6 +229,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Notizen</t>
   </si>
 </sst>
 </file>
@@ -363,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="73">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -577,43 +565,6 @@
         <color rgb="FFFE6C36"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFFE6C36"/>
       </top>
@@ -679,19 +630,6 @@
         <color rgb="FFFE6C36"/>
       </top>
       <bottom style="thick">
-        <color rgb="FFFE6C36"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FFFE6C36"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FFFE6C36"/>
       </bottom>
       <diagonal/>
@@ -791,19 +729,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFE6C36"/>
-      </left>
-      <right style="thick">
-        <color rgb="FFFE6C36"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFE6C36"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1289,7 +1214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1326,38 +1251,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1367,71 +1288,80 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1440,40 +1370,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,7 +1395,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -1692,94 +1604,6 @@
       <fill>
         <patternFill patternType="darkUp">
           <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="lightHorizontal">
-          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1910,11 +1734,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="36"/>
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="firstColumn" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2041,7 +1865,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>4396</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2401,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
-  <dimension ref="A1:Y38"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,824 +2262,824 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="G2" s="37"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="1:25" ht="81.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="G3" s="104" t="s">
+      <c r="C3" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="G3" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
       <c r="J3" s="7"/>
-      <c r="K3" s="104" t="s">
+      <c r="K3" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="O3" s="104" t="s">
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="O3" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="S3" s="98" t="s">
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="S3" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="T3" s="99"/>
-      <c r="U3" s="100"/>
-      <c r="W3" s="101" t="s">
+      <c r="T3" s="94"/>
+      <c r="U3" s="95"/>
+      <c r="W3" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="103"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="98"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88" t="s">
+      <c r="B5" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="51" t="s">
+      <c r="G5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="51" t="s">
+      <c r="K5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="51" t="s">
+      <c r="O5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="65" t="s">
+      <c r="S5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="X5" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" s="65" t="s">
+      <c r="W5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="X5" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y5" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="78"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="32"/>
-      <c r="G6" s="52"/>
+      <c r="E6" s="30"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="52"/>
+      <c r="K6" s="50"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="53"/>
-      <c r="O6" s="52"/>
+      <c r="M6" s="51"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="53"/>
-      <c r="S6" s="72"/>
+      <c r="Q6" s="51"/>
+      <c r="S6" s="70"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="71"/>
-      <c r="W6" s="72"/>
+      <c r="U6" s="69"/>
+      <c r="W6" s="70"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="71"/>
+      <c r="Y6" s="69"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="32"/>
-      <c r="G7" s="52" t="s">
-        <v>68</v>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="51" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="52"/>
+      <c r="K7" s="50"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="53"/>
-      <c r="O7" s="52"/>
+      <c r="M7" s="51"/>
+      <c r="O7" s="50"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="53"/>
-      <c r="S7" s="70"/>
+      <c r="Q7" s="51"/>
+      <c r="S7" s="68"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="84"/>
-      <c r="W7" s="70"/>
+      <c r="U7" s="82"/>
+      <c r="W7" s="68"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="84"/>
+      <c r="Y7" s="82"/>
     </row>
-    <row r="8" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="G8" s="54" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="G8" s="52" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="54" t="s">
+      <c r="J8" s="43"/>
+      <c r="K8" s="52" t="s">
         <v>27</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="55" t="s">
+      <c r="M8" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="54"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="55"/>
-      <c r="S8" s="68" t="s">
+      <c r="Q8" s="53"/>
+      <c r="S8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="T8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="69"/>
+      <c r="U8" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="66"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="67"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="33"/>
-      <c r="G9" s="54" t="s">
+      <c r="E9" s="31"/>
+      <c r="G9" s="52" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="54" t="s">
+      <c r="K9" s="52" t="s">
         <v>28</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="54"/>
+      <c r="O9" s="52"/>
       <c r="P9" s="5"/>
-      <c r="Q9" s="55"/>
-      <c r="S9" s="70" t="s">
+      <c r="Q9" s="53"/>
+      <c r="S9" s="68" t="s">
         <v>17</v>
       </c>
       <c r="T9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="U9" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="W9" s="72"/>
+      <c r="U9" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="70"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="71"/>
+      <c r="Y9" s="69"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="80"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="22"/>
-      <c r="E10" s="33"/>
-      <c r="G10" s="54" t="s">
+      <c r="E10" s="31"/>
+      <c r="G10" s="52" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="54" t="s">
+      <c r="K10" s="52" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="54"/>
+      <c r="O10" s="52"/>
       <c r="P10" s="5"/>
-      <c r="Q10" s="55"/>
-      <c r="S10" s="72"/>
+      <c r="Q10" s="53"/>
+      <c r="S10" s="70"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="71"/>
-      <c r="W10" s="72"/>
+      <c r="U10" s="69"/>
+      <c r="W10" s="70"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="71"/>
+      <c r="Y10" s="69"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="80"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="22"/>
-      <c r="E11" s="33"/>
-      <c r="G11" s="54" t="s">
+      <c r="E11" s="31"/>
+      <c r="G11" s="52" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="52" t="s">
         <v>30</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="54"/>
+      <c r="O11" s="52"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="55"/>
-      <c r="S11" s="72"/>
+      <c r="Q11" s="53"/>
+      <c r="S11" s="70"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="71"/>
-      <c r="W11" s="72"/>
+      <c r="U11" s="69"/>
+      <c r="W11" s="70"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="71"/>
+      <c r="Y11" s="69"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="80"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="22"/>
-      <c r="E12" s="33"/>
-      <c r="G12" s="54" t="s">
+      <c r="E12" s="31"/>
+      <c r="G12" s="52" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="54"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="55"/>
-      <c r="O12" s="54" t="s">
+      <c r="M12" s="53"/>
+      <c r="O12" s="52" t="s">
         <v>8</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q12" s="55" t="s">
+      <c r="Q12" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="72"/>
+      <c r="S12" s="70"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="71"/>
-      <c r="W12" s="72"/>
+      <c r="U12" s="69"/>
+      <c r="W12" s="70"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="71"/>
+      <c r="Y12" s="69"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="80"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="22"/>
-      <c r="E13" s="33"/>
-      <c r="G13" s="52" t="s">
+      <c r="E13" s="31"/>
+      <c r="G13" s="50" t="s">
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="52" t="s">
+      <c r="K13" s="50" t="s">
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="52" t="s">
+      <c r="O13" s="50" t="s">
         <v>0</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S13" s="72"/>
+      <c r="S13" s="70"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="71"/>
-      <c r="W13" s="72"/>
+      <c r="U13" s="69"/>
+      <c r="W13" s="70"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="71"/>
+      <c r="Y13" s="69"/>
     </row>
-    <row r="14" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="G14" s="56" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="G14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="55" t="s">
+      <c r="H14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="45"/>
-      <c r="K14" s="56" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="55" t="s">
+      <c r="L14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="56"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="55"/>
-      <c r="S14" s="72"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="53"/>
+      <c r="S14" s="70"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="71"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="74"/>
+      <c r="U14" s="69"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="72"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="33"/>
-      <c r="G15" s="57" t="s">
+      <c r="E15" s="31"/>
+      <c r="G15" s="55" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="57" t="s">
+      <c r="K15" s="55" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="57" t="s">
+      <c r="O15" s="55" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S15" s="72"/>
+      <c r="S15" s="70"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="71"/>
-      <c r="W15" s="72"/>
+      <c r="U15" s="69"/>
+      <c r="W15" s="70"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="71"/>
+      <c r="Y15" s="69"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="80"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="33"/>
-      <c r="G16" s="54" t="s">
+      <c r="E16" s="31"/>
+      <c r="G16" s="52" t="s">
         <v>33</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="52" t="s">
         <v>33</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="55" t="s">
+      <c r="M16" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="54"/>
+      <c r="O16" s="52"/>
       <c r="P16" s="5"/>
-      <c r="Q16" s="55"/>
-      <c r="S16" s="72"/>
+      <c r="Q16" s="53"/>
+      <c r="S16" s="70"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="71"/>
-      <c r="W16" s="72"/>
+      <c r="U16" s="69"/>
+      <c r="W16" s="70"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="71"/>
+      <c r="Y16" s="69"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="17"/>
-      <c r="C17" s="80"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="33"/>
-      <c r="G17" s="54" t="s">
+      <c r="E17" s="31"/>
+      <c r="G17" s="52" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="52" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M17" s="55" t="s">
+      <c r="M17" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="54" t="s">
+      <c r="O17" s="52" t="s">
         <v>2</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="55" t="s">
+      <c r="Q17" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S17" s="72"/>
+      <c r="S17" s="70"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="71"/>
-      <c r="W17" s="72"/>
+      <c r="U17" s="69"/>
+      <c r="W17" s="70"/>
       <c r="X17" s="5"/>
-      <c r="Y17" s="71"/>
+      <c r="Y17" s="69"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="80"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="33"/>
-      <c r="G18" s="54" t="s">
+      <c r="E18" s="31"/>
+      <c r="G18" s="52" t="s">
         <v>34</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="54" t="s">
+      <c r="K18" s="52" t="s">
         <v>34</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M18" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="54" t="s">
+      <c r="O18" s="52" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q18" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S18" s="72"/>
+      <c r="S18" s="70"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="71"/>
-      <c r="W18" s="72"/>
+      <c r="U18" s="69"/>
+      <c r="W18" s="70"/>
       <c r="X18" s="5"/>
-      <c r="Y18" s="71"/>
+      <c r="Y18" s="69"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="80"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="33"/>
-      <c r="G19" s="54" t="s">
+      <c r="E19" s="31"/>
+      <c r="G19" s="52" t="s">
         <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="54" t="s">
+      <c r="K19" s="52" t="s">
         <v>35</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M19" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="54" t="s">
+      <c r="O19" s="52" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S19" s="72"/>
+      <c r="S19" s="70"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="71"/>
-      <c r="W19" s="72"/>
+      <c r="U19" s="69"/>
+      <c r="W19" s="70"/>
       <c r="X19" s="5"/>
-      <c r="Y19" s="71"/>
+      <c r="Y19" s="69"/>
     </row>
-    <row r="20" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="G20" s="56" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="G20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="55" t="s">
+      <c r="H20" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="56" t="s">
+      <c r="J20" s="43"/>
+      <c r="K20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="55" t="s">
+      <c r="L20" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="55" t="s">
+      <c r="P20" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S20" s="73"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="74"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="74"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="72"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="72"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="17"/>
-      <c r="C21" s="80"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="33"/>
-      <c r="G21" s="54" t="s">
+      <c r="E21" s="31"/>
+      <c r="G21" s="52" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="54" t="s">
+      <c r="K21" s="52" t="s">
         <v>37</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="M21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="52" t="s">
         <v>37</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q21" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S21" s="72"/>
+      <c r="S21" s="70"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="71"/>
-      <c r="W21" s="72"/>
+      <c r="U21" s="69"/>
+      <c r="W21" s="70"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="71"/>
+      <c r="Y21" s="69"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="17"/>
-      <c r="C22" s="80"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="33"/>
-      <c r="G22" s="52" t="s">
+      <c r="E22" s="31"/>
+      <c r="G22" s="50" t="s">
         <v>38</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="53" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="52"/>
+      <c r="K22" s="50"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="53"/>
-      <c r="O22" s="52" t="s">
+      <c r="M22" s="51"/>
+      <c r="O22" s="50" t="s">
         <v>6</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="S22" s="66"/>
+      <c r="S22" s="64"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="67"/>
-      <c r="W22" s="66"/>
+      <c r="U22" s="65"/>
+      <c r="W22" s="64"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="67"/>
+      <c r="Y22" s="65"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="17"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="33"/>
-      <c r="G23" s="52"/>
+      <c r="E23" s="31"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="53"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="52" t="s">
+      <c r="K23" s="50" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M23" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="52"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="6"/>
-      <c r="Q23" s="53"/>
-      <c r="S23" s="66"/>
+      <c r="Q23" s="51"/>
+      <c r="S23" s="64"/>
       <c r="T23" s="6"/>
-      <c r="U23" s="67"/>
-      <c r="W23" s="66"/>
+      <c r="U23" s="65"/>
+      <c r="W23" s="64"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="67"/>
+      <c r="Y23" s="65"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="23"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="60"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="60"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="77"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="77"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="58"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="58"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="75"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="75"/>
     </row>
     <row r="25" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="8"/>
@@ -3268,15 +3092,15 @@
       <c r="O25" s="8"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="9"/>
-      <c r="S25" s="61"/>
+      <c r="S25" s="59"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="62"/>
+      <c r="U25" s="60"/>
       <c r="W25" s="8"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="83" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3287,50 +3111,50 @@
       <c r="E26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="51" t="s">
+      <c r="G26" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="49" t="s">
         <v>9</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="M26" s="51" t="s">
+      <c r="K26" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O26" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="51" t="s">
+      <c r="O26" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="S26" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="T26" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="U26" s="65" t="s">
+      <c r="S26" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="T26" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W26" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y26" s="65" t="s">
+      <c r="W26" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="X26" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y26" s="63" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3338,334 +3162,248 @@
       <c r="A27" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="29"/>
-      <c r="G27" s="54"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="28"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="55"/>
-      <c r="K27" s="54"/>
+      <c r="I27" s="53"/>
+      <c r="K27" s="52"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="55"/>
-      <c r="O27" s="54"/>
+      <c r="M27" s="53"/>
+      <c r="O27" s="52"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="55"/>
-      <c r="S27" s="72"/>
+      <c r="Q27" s="53"/>
+      <c r="S27" s="70"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="71"/>
-      <c r="W27" s="72"/>
+      <c r="U27" s="69"/>
+      <c r="W27" s="70"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="71"/>
+      <c r="Y27" s="69"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="30"/>
-      <c r="G28" s="54"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="28"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="55"/>
-      <c r="K28" s="54"/>
+      <c r="I28" s="53"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="55"/>
-      <c r="O28" s="54"/>
+      <c r="M28" s="53"/>
+      <c r="O28" s="52"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="55"/>
-      <c r="S28" s="72"/>
+      <c r="Q28" s="53"/>
+      <c r="S28" s="70"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="71"/>
-      <c r="W28" s="72"/>
+      <c r="U28" s="69"/>
+      <c r="W28" s="70"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="71"/>
+      <c r="Y28" s="69"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="30"/>
-      <c r="G29" s="54"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="28"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="55"/>
-      <c r="K29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="K29" s="52"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="55"/>
-      <c r="O29" s="54"/>
+      <c r="M29" s="53"/>
+      <c r="O29" s="52"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="55"/>
-      <c r="S29" s="72"/>
+      <c r="Q29" s="53"/>
+      <c r="S29" s="70"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="71"/>
-      <c r="W29" s="72"/>
+      <c r="U29" s="69"/>
+      <c r="W29" s="70"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="71"/>
+      <c r="Y29" s="69"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="30"/>
-      <c r="G30" s="54"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="28"/>
+      <c r="G30" s="52"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="55"/>
-      <c r="K30" s="54"/>
+      <c r="I30" s="53"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="55"/>
-      <c r="O30" s="54"/>
+      <c r="M30" s="53"/>
+      <c r="O30" s="52"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="55"/>
-      <c r="S30" s="72"/>
+      <c r="Q30" s="53"/>
+      <c r="S30" s="70"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="71"/>
-      <c r="W30" s="72"/>
+      <c r="U30" s="69"/>
+      <c r="W30" s="70"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="71"/>
+      <c r="Y30" s="69"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="30"/>
-      <c r="G31" s="54"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="28"/>
+      <c r="G31" s="52"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="55"/>
-      <c r="K31" s="54"/>
+      <c r="I31" s="53"/>
+      <c r="K31" s="52"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="55"/>
-      <c r="O31" s="54"/>
+      <c r="M31" s="53"/>
+      <c r="O31" s="52"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="55"/>
-      <c r="S31" s="72"/>
+      <c r="Q31" s="53"/>
+      <c r="S31" s="70"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="71"/>
-      <c r="W31" s="72"/>
+      <c r="U31" s="69"/>
+      <c r="W31" s="70"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="71"/>
+      <c r="Y31" s="69"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="30"/>
-      <c r="G32" s="54"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="28"/>
+      <c r="G32" s="52"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="55"/>
-      <c r="K32" s="54"/>
+      <c r="I32" s="53"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="55"/>
-      <c r="O32" s="54"/>
+      <c r="M32" s="53"/>
+      <c r="O32" s="52"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="55"/>
-      <c r="S32" s="72"/>
+      <c r="Q32" s="53"/>
+      <c r="S32" s="70"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="71"/>
-      <c r="W32" s="72"/>
+      <c r="U32" s="69"/>
+      <c r="W32" s="70"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="71"/>
+      <c r="Y32" s="69"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="30"/>
-      <c r="G33" s="54"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="28"/>
+      <c r="G33" s="52"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="55"/>
-      <c r="K33" s="54"/>
+      <c r="I33" s="53"/>
+      <c r="K33" s="52"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="55"/>
-      <c r="O33" s="54"/>
+      <c r="M33" s="53"/>
+      <c r="O33" s="52"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="55"/>
-      <c r="S33" s="72"/>
+      <c r="Q33" s="53"/>
+      <c r="S33" s="70"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="71"/>
-      <c r="W33" s="72"/>
+      <c r="U33" s="69"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="71"/>
+      <c r="Y33" s="69"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="30"/>
-      <c r="G34" s="54"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="28"/>
+      <c r="G34" s="52"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="55"/>
-      <c r="K34" s="54"/>
+      <c r="I34" s="53"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="55"/>
-      <c r="O34" s="54"/>
+      <c r="M34" s="53"/>
+      <c r="O34" s="52"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="55"/>
-      <c r="S34" s="72"/>
+      <c r="Q34" s="53"/>
+      <c r="S34" s="70"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="71"/>
-      <c r="W34" s="72"/>
+      <c r="U34" s="69"/>
+      <c r="W34" s="70"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="71"/>
+      <c r="Y34" s="69"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="30"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="55"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="55"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="55"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="71"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="71"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="29"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="58"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="58"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="75"/>
+      <c r="W35" s="73"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="75"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="30"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="55"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="55"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="55"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="71"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="71"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="31"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="60"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="60"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="76"/>
-      <c r="U37" s="77"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="76"/>
-      <c r="Y37" s="77"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="S26:Y37 S3:Y25" name="customEntities"/>
-    <protectedRange sqref="A27:D31" name="Questionnaire_3"/>
+    <protectedRange sqref="S3:Y25 S26:Y35" name="customEntities"/>
+    <protectedRange sqref="A27:D29" name="Questionnaire_3"/>
     <protectedRange sqref="B8:B12" name="Contact Fields_2"/>
     <protectedRange sqref="A8:A23" name="Contact Fields_1"/>
-    <protectedRange sqref="A32:Y37 E27:Y31" name="Questionnaire"/>
+    <protectedRange sqref="A30:Y35 E27:Y29" name="Questionnaire"/>
     <protectedRange sqref="A24:Y24 B23:Y23 B13:H22 C9:H12 A6:Y7 C8:Y8 I9:Y22" name="Contact Fields"/>
   </protectedRanges>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I9:I22 B23:AG23 B13:K22 C9:K12 A24:AG25 M9:AG10 M12:P22 R18:AG22 C8:J8 N8:AG8 R12:R17 M11:R11 S11:AG17">
-    <cfRule type="expression" dxfId="31" priority="39">
+    <cfRule type="expression" dxfId="23" priority="39">
       <formula>$C8="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40">
+    <cfRule type="expression" dxfId="22" priority="40">
       <formula>$D8="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W27:Y37">
-    <cfRule type="expression" dxfId="29" priority="37">
+  <conditionalFormatting sqref="W27:Y35 S27:U35 O27:Q35 K27:M35 G27:I35">
+    <cfRule type="expression" dxfId="21" priority="37">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:U37">
-    <cfRule type="expression" dxfId="27" priority="35">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="36">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q37">
-    <cfRule type="expression" dxfId="25" priority="33">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="34">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M37">
-    <cfRule type="expression" dxfId="23" priority="31">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="32">
-      <formula>$D27="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:I37">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>$C27="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="20" priority="38">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3753,7 +3491,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{7904A3F4-6221-4D64-AD0E-1F4168BBF862}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 U6:U24 Y6:Y24 Y27:Y37 U27:U37 Q27:Q37 M27:M37 I27:I37" xr:uid="{09C7EF34-073D-4601-825E-FB0BE0622D24}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I24 M6:M24 Q6:Q24 U6:U24 Y6:Y24 Y27:Y35 U27:U35 Q27:Q35 M27:M35 I27:I35" xr:uid="{09C7EF34-073D-4601-825E-FB0BE0622D24}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
